--- a/results/mod2.lrgen.eff.MN.xlsx
+++ b/results/mod2.lrgen.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0707398485112477</v>
+        <v>0.0707420419701588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0306276267513718</v>
+        <v>0.0306274833447501</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0107108031466236</v>
+        <v>0.0107132776773482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.130768893875872</v>
+        <v>0.130770806262969</v>
       </c>
       <c r="G2" t="n">
-        <v>2.30967450026403</v>
+        <v>2.30975693216024</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0209061815857947</v>
+        <v>0.0209016148998954</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0198187378626966</v>
+        <v>-0.0198242033309362</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0705210609802602</v>
+        <v>0.0705206577596383</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.158037477535559</v>
+        <v>-0.158042152705902</v>
       </c>
       <c r="F3" t="n">
-        <v>0.118400001810166</v>
+        <v>0.11839374604403</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.281032894105835</v>
+        <v>-0.281112002648993</v>
       </c>
       <c r="H3" t="n">
-        <v>0.77868517025426</v>
+        <v>0.778624495441845</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0484372830932364</v>
+        <v>-0.0484356553733562</v>
       </c>
       <c r="C4" t="n">
-        <v>0.030279405651326</v>
+        <v>0.0302793046963228</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.107783827643114</v>
+        <v>-0.107782002055063</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0109092614566412</v>
+        <v>0.0109106913083509</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.59967747223979</v>
+        <v>-1.59962904892061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.109670151959305</v>
+        <v>0.109680900229928</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00248382755531476</v>
+        <v>-0.0024821832658664</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0260875716359439</v>
+        <v>0.0260874266857638</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0536145284058735</v>
+        <v>-0.0536126000192925</v>
       </c>
       <c r="F5" t="n">
-        <v>0.048646873295244</v>
+        <v>0.0486482334875597</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0952111446008452</v>
+        <v>-0.0951486436652243</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9241471180916</v>
+        <v>0.924196761249167</v>
       </c>
     </row>
   </sheetData>
